--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mif-Cd74.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mif-Cd74.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.34546866666667</v>
+        <v>6.556445</v>
       </c>
       <c r="H2">
-        <v>70.036406</v>
+        <v>19.669335</v>
       </c>
       <c r="I2">
-        <v>0.4715073400272545</v>
+        <v>0.2003595613103873</v>
       </c>
       <c r="J2">
-        <v>0.4715073400272545</v>
+        <v>0.2003595613103873</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.15988866666667</v>
+        <v>1.231278</v>
       </c>
       <c r="N2">
-        <v>291.479666</v>
+        <v>3.693834</v>
       </c>
       <c r="O2">
-        <v>0.974735784617843</v>
+        <v>0.3283785416403858</v>
       </c>
       <c r="P2">
-        <v>0.9747357846178432</v>
+        <v>0.3283785416403859</v>
       </c>
       <c r="Q2">
-        <v>2268.243136524488</v>
+        <v>8.072806486709998</v>
       </c>
       <c r="R2">
-        <v>20414.1882287204</v>
+        <v>72.65525838038999</v>
       </c>
       <c r="S2">
-        <v>0.459595077034538</v>
+        <v>0.06579378054681244</v>
       </c>
       <c r="T2">
-        <v>0.4595950770345381</v>
+        <v>0.06579378054681245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.34546866666667</v>
+        <v>6.556445</v>
       </c>
       <c r="H3">
-        <v>70.036406</v>
+        <v>19.669335</v>
       </c>
       <c r="I3">
-        <v>0.4715073400272545</v>
+        <v>0.2003595613103873</v>
       </c>
       <c r="J3">
-        <v>0.4715073400272545</v>
+        <v>0.2003595613103873</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.344809</v>
       </c>
       <c r="O3">
-        <v>0.007841264784466921</v>
+        <v>0.2084514246837437</v>
       </c>
       <c r="P3">
-        <v>0.007841264784466921</v>
+        <v>0.2084514246837437</v>
       </c>
       <c r="Q3">
-        <v>18.24688834627267</v>
+        <v>5.124537081335</v>
       </c>
       <c r="R3">
-        <v>164.221995116454</v>
+        <v>46.120833732015</v>
       </c>
       <c r="S3">
-        <v>0.003697213900973381</v>
+        <v>0.04176523600416011</v>
       </c>
       <c r="T3">
-        <v>0.003697213900973381</v>
+        <v>0.04176523600416011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.34546866666667</v>
+        <v>6.556445</v>
       </c>
       <c r="H4">
-        <v>70.036406</v>
+        <v>19.669335</v>
       </c>
       <c r="I4">
-        <v>0.4715073400272545</v>
+        <v>0.2003595613103873</v>
       </c>
       <c r="J4">
-        <v>0.4715073400272545</v>
+        <v>0.2003595613103873</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>5.210064</v>
       </c>
       <c r="O4">
-        <v>0.01742295059768999</v>
+        <v>0.4631700336758705</v>
       </c>
       <c r="P4">
-        <v>0.01742295059768999</v>
+        <v>0.4631700336758705</v>
       </c>
       <c r="Q4">
-        <v>40.543795287776</v>
+        <v>11.38649935416</v>
       </c>
       <c r="R4">
-        <v>364.894157589984</v>
+        <v>102.47849418744</v>
       </c>
       <c r="S4">
-        <v>0.00821504909174307</v>
+        <v>0.0928005447594147</v>
       </c>
       <c r="T4">
-        <v>0.00821504909174307</v>
+        <v>0.09280054475941471</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>37.720135</v>
       </c>
       <c r="I5">
-        <v>0.2539439348061199</v>
+        <v>0.3842320902647997</v>
       </c>
       <c r="J5">
-        <v>0.2539439348061199</v>
+        <v>0.3842320902647997</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>97.15988866666667</v>
+        <v>1.231278</v>
       </c>
       <c r="N5">
-        <v>291.479666</v>
+        <v>3.693834</v>
       </c>
       <c r="O5">
-        <v>0.974735784617843</v>
+        <v>0.3283785416403858</v>
       </c>
       <c r="P5">
-        <v>0.9747357846178432</v>
+        <v>0.3283785416403859</v>
       </c>
       <c r="Q5">
-        <v>1221.628039030546</v>
+        <v>15.48132412751</v>
       </c>
       <c r="R5">
-        <v>10994.65235127491</v>
+        <v>139.33191714759</v>
       </c>
       <c r="S5">
-        <v>0.2475282405421856</v>
+        <v>0.126173573452592</v>
       </c>
       <c r="T5">
-        <v>0.2475282405421857</v>
+        <v>0.126173573452592</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>37.720135</v>
       </c>
       <c r="I6">
-        <v>0.2539439348061199</v>
+        <v>0.3842320902647997</v>
       </c>
       <c r="J6">
-        <v>0.2539439348061199</v>
+        <v>0.3842320902647997</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.344809</v>
       </c>
       <c r="O6">
-        <v>0.007841264784466921</v>
+        <v>0.2084514246837437</v>
       </c>
       <c r="P6">
-        <v>0.007841264784466921</v>
+        <v>0.2084514246837437</v>
       </c>
       <c r="Q6">
         <v>9.827390225468333</v>
@@ -818,10 +818,10 @@
         <v>88.446512029215</v>
       </c>
       <c r="S6">
-        <v>0.001991241633224191</v>
+        <v>0.08009372662491028</v>
       </c>
       <c r="T6">
-        <v>0.001991241633224191</v>
+        <v>0.08009372662491029</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>37.720135</v>
       </c>
       <c r="I7">
-        <v>0.2539439348061199</v>
+        <v>0.3842320902647997</v>
       </c>
       <c r="J7">
-        <v>0.2539439348061199</v>
+        <v>0.3842320902647997</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>5.210064</v>
       </c>
       <c r="O7">
-        <v>0.01742295059768999</v>
+        <v>0.4631700336758705</v>
       </c>
       <c r="P7">
-        <v>0.01742295059768999</v>
+        <v>0.4631700336758705</v>
       </c>
       <c r="Q7">
         <v>21.83603527096</v>
@@ -880,10 +880,10 @@
         <v>196.52431743864</v>
       </c>
       <c r="S7">
-        <v>0.004424452630710033</v>
+        <v>0.1779647901872974</v>
       </c>
       <c r="T7">
-        <v>0.004424452630710033</v>
+        <v>0.1779647901872974</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.59357133333333</v>
+        <v>13.59357133333334</v>
       </c>
       <c r="H8">
         <v>40.780714</v>
       </c>
       <c r="I8">
-        <v>0.2745487251666257</v>
+        <v>0.4154083484248129</v>
       </c>
       <c r="J8">
-        <v>0.2745487251666257</v>
+        <v>0.415408348424813</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>97.15988866666667</v>
+        <v>1.231278</v>
       </c>
       <c r="N8">
-        <v>291.479666</v>
+        <v>3.693834</v>
       </c>
       <c r="O8">
-        <v>0.974735784617843</v>
+        <v>0.3283785416403858</v>
       </c>
       <c r="P8">
-        <v>0.9747357846178432</v>
+        <v>0.3283785416403859</v>
       </c>
       <c r="Q8">
-        <v>1320.749877329058</v>
+        <v>16.737465324164</v>
       </c>
       <c r="R8">
-        <v>11886.74889596152</v>
+        <v>150.637187917476</v>
       </c>
       <c r="S8">
-        <v>0.2676124670411195</v>
+        <v>0.1364111876409813</v>
       </c>
       <c r="T8">
-        <v>0.2676124670411195</v>
+        <v>0.1364111876409814</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.59357133333333</v>
+        <v>13.59357133333334</v>
       </c>
       <c r="H9">
         <v>40.780714</v>
       </c>
       <c r="I9">
-        <v>0.2745487251666257</v>
+        <v>0.4154083484248129</v>
       </c>
       <c r="J9">
-        <v>0.2745487251666257</v>
+        <v>0.415408348424813</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.344809</v>
       </c>
       <c r="O9">
-        <v>0.007841264784466921</v>
+        <v>0.2084514246837437</v>
       </c>
       <c r="P9">
-        <v>0.007841264784466921</v>
+        <v>0.2084514246837437</v>
       </c>
       <c r="Q9">
-        <v>10.62477613484733</v>
+        <v>10.62477613484734</v>
       </c>
       <c r="R9">
-        <v>95.622985213626</v>
+        <v>95.62298521362601</v>
       </c>
       <c r="S9">
-        <v>0.002152809250269349</v>
+        <v>0.08659246205467325</v>
       </c>
       <c r="T9">
-        <v>0.002152809250269349</v>
+        <v>0.08659246205467326</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.59357133333333</v>
+        <v>13.59357133333334</v>
       </c>
       <c r="H10">
         <v>40.780714</v>
       </c>
       <c r="I10">
-        <v>0.2745487251666257</v>
+        <v>0.4154083484248129</v>
       </c>
       <c r="J10">
-        <v>0.2745487251666257</v>
+        <v>0.415408348424813</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>5.210064</v>
       </c>
       <c r="O10">
-        <v>0.01742295059768999</v>
+        <v>0.4631700336758705</v>
       </c>
       <c r="P10">
-        <v>0.01742295059768999</v>
+        <v>0.4631700336758705</v>
       </c>
       <c r="Q10">
         <v>23.607792211744</v>
@@ -1066,10 +1066,10 @@
         <v>212.470129905696</v>
       </c>
       <c r="S10">
-        <v>0.004783448875236886</v>
+        <v>0.1924046987291583</v>
       </c>
       <c r="T10">
-        <v>0.004783448875236886</v>
+        <v>0.1924046987291584</v>
       </c>
     </row>
   </sheetData>
